--- a/biology/Zoologie/Demansia_papuensis/Demansia_papuensis.xlsx
+++ b/biology/Zoologie/Demansia_papuensis/Demansia_papuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demansia papuensis est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demansia papuensis est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Australie dans le nord de l'Australie-Occidentale, le Territoire du Nord et le Queensland ;
 en Papouasie-Nouvelle-Guinée dans le sud de la Nouvelle-Guinée orientale.
 Sa présence est incertaine en Nouvelle-Guinée occidentale en Indonésie.
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Demansia papuensis melaena Storr, 1978
 Demansia papuensis papuensis (Macleay, 1877)</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de papu[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence à la Papouasie-Nouvelle-Guinée où cette espèce a été découverte.
 </t>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Macleay, 1877 : The ophidians of the Chevert Expedition. Proceedings of the Linnean Society of New South Wales, sér. 1, vol. 2, p. 33-41 (texte intégral).
 Storr, 1978 : Whip snakes (Demansia, Elapidae) of Western Australia. Records of the Western Australian Museum, vol. 6, no 3, p. 287-301 (texte intégral).</t>
